--- a/data/trans_orig/P23_1_2016_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>142302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123898</v>
+        <v>121006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162477</v>
+        <v>163011</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.339247671402795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2953728341561818</v>
+        <v>0.2884789334928698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3873452132997553</v>
+        <v>0.3886175636986546</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -763,19 +763,19 @@
         <v>105447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87857</v>
+        <v>89240</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122835</v>
+        <v>122372</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2664440224219902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2219992097153932</v>
+        <v>0.2254939619508431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3103823447642989</v>
+        <v>0.3092119559997805</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>240</v>
@@ -784,19 +784,19 @@
         <v>247748</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222082</v>
+        <v>219585</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273910</v>
+        <v>274045</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3039044769860919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2724208521386178</v>
+        <v>0.2693579811175146</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.335995436995019</v>
+        <v>0.3361620931854837</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>277161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256986</v>
+        <v>256452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>295565</v>
+        <v>298457</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.660752328597205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6126547867002449</v>
+        <v>0.6113824363013454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7046271658438182</v>
+        <v>0.7115210665071304</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>297</v>
@@ -834,19 +834,19 @@
         <v>290308</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272920</v>
+        <v>273383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307898</v>
+        <v>306515</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7335559775780098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6896176552357011</v>
+        <v>0.6907880440002196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7780007902846069</v>
+        <v>0.774506038049157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>557</v>
@@ -855,19 +855,19 @@
         <v>567470</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>541308</v>
+        <v>541173</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>593136</v>
+        <v>595633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6960955230139081</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.664004563004981</v>
+        <v>0.6638379068145163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7275791478613821</v>
+        <v>0.7306420188824854</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>261082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>238359</v>
+        <v>234056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>290272</v>
+        <v>284821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4421407045412315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4036583526821732</v>
+        <v>0.3963717938985948</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4915724086760918</v>
+        <v>0.482342195790694</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>219</v>
@@ -980,19 +980,19 @@
         <v>213031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>192409</v>
+        <v>193002</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>235925</v>
+        <v>236099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3780202084605866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3414263609217993</v>
+        <v>0.3424789266916847</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4186444736600579</v>
+        <v>0.4189537151911246</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>468</v>
@@ -1001,19 +1001,19 @@
         <v>474113</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>439256</v>
+        <v>439835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>508531</v>
+        <v>504847</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4108292229099084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3806241978676164</v>
+        <v>0.3811258774642838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4406528996003245</v>
+        <v>0.4374601761765068</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>329414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>300224</v>
+        <v>305675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352137</v>
+        <v>356440</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5578592954587686</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5084275913239085</v>
+        <v>0.517657804209306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5963416473178269</v>
+        <v>0.6036282061014052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>360</v>
@@ -1051,19 +1051,19 @@
         <v>350513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327619</v>
+        <v>327445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371135</v>
+        <v>370542</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6219797915394134</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5813555263399429</v>
+        <v>0.581046284808876</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6585736390782008</v>
+        <v>0.6575210733083154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -1072,19 +1072,19 @@
         <v>679927</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>645509</v>
+        <v>649193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>714784</v>
+        <v>714205</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5891707770900916</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5593471003996755</v>
+        <v>0.5625398238234931</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6193758021323835</v>
+        <v>0.6188741225357162</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>266024</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>240558</v>
+        <v>240244</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>291464</v>
+        <v>293906</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3982239068372334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3601026780836334</v>
+        <v>0.3596338548248419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4363065408386834</v>
+        <v>0.439962482063779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -1197,19 +1197,19 @@
         <v>220544</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196608</v>
+        <v>199578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>245941</v>
+        <v>245243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3339250966880152</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2976843842844498</v>
+        <v>0.3021809335445248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3723796577164915</v>
+        <v>0.3713214244282616</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>477</v>
@@ -1218,19 +1218,19 @@
         <v>486567</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>451271</v>
+        <v>452654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>523558</v>
+        <v>519240</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3662576030956431</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.339689111224555</v>
+        <v>0.3407303660691722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3941022711721933</v>
+        <v>0.3908516721731097</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>402001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>376561</v>
+        <v>374119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427467</v>
+        <v>427781</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6017760931627667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5636934591613166</v>
+        <v>0.560037517936221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6398973219163666</v>
+        <v>0.6403661451751581</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>439</v>
@@ -1268,19 +1268,19 @@
         <v>439915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>414518</v>
+        <v>415216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>463851</v>
+        <v>460881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6660749033119847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6276203422835084</v>
+        <v>0.6286785755717386</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7023156157155501</v>
+        <v>0.6978190664554755</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>824</v>
@@ -1289,19 +1289,19 @@
         <v>841916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>804925</v>
+        <v>809243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>877212</v>
+        <v>875829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6337423969043569</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6058977288278067</v>
+        <v>0.6091483278268902</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.660310888775445</v>
+        <v>0.6592696339308277</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>277798</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252351</v>
+        <v>252501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>307070</v>
+        <v>304717</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4299958890964127</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3906066803548922</v>
+        <v>0.3908393897911941</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4753060125468226</v>
+        <v>0.4716628990548051</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -1414,19 +1414,19 @@
         <v>230829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>206527</v>
+        <v>207093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258328</v>
+        <v>255635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3567894745033369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3192257650000268</v>
+        <v>0.3201017051305837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3992950695335936</v>
+        <v>0.3951312691957163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>457</v>
@@ -1435,19 +1435,19 @@
         <v>508627</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>472062</v>
+        <v>472218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>543585</v>
+        <v>545082</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3933668561170007</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3650876948877068</v>
+        <v>0.3652085419931137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4204031089668305</v>
+        <v>0.4215612481851761</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>368250</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338978</v>
+        <v>341331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>393697</v>
+        <v>393547</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5700041109035873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5246939874531773</v>
+        <v>0.5283371009451949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6093933196451079</v>
+        <v>0.609160610208806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>389</v>
@@ -1485,19 +1485,19 @@
         <v>416132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388633</v>
+        <v>391326</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>440434</v>
+        <v>439868</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.643210525496663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6007049304664065</v>
+        <v>0.6048687308042837</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6807742349999732</v>
+        <v>0.6798982948694166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -1506,19 +1506,19 @@
         <v>784382</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>749424</v>
+        <v>747927</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>820947</v>
+        <v>820791</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6066331438829993</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5795968910331696</v>
+        <v>0.5784387518148238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6349123051122931</v>
+        <v>0.6347914580068863</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>146836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>127050</v>
+        <v>124713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168431</v>
+        <v>170064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3072415637655997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2658408175876059</v>
+        <v>0.2609505881001148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3524269872639174</v>
+        <v>0.355844388328128</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -1631,19 +1631,19 @@
         <v>114087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95809</v>
+        <v>95820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>136324</v>
+        <v>135693</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2301353676725043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1932650249942492</v>
+        <v>0.1932869916465923</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2749902618076372</v>
+        <v>0.2737190158316259</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>228</v>
@@ -1652,19 +1652,19 @@
         <v>260924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>231797</v>
+        <v>230477</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>291111</v>
+        <v>289555</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2679827850738919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2380681211048016</v>
+        <v>0.2367125885262868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2989868450033152</v>
+        <v>0.2973887360940768</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>331082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>309487</v>
+        <v>307854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>350868</v>
+        <v>353205</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6927584362344003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6475730127360827</v>
+        <v>0.6441556116718721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7341591824123941</v>
+        <v>0.7390494118998853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>334</v>
@@ -1702,19 +1702,19 @@
         <v>381653</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>359416</v>
+        <v>360047</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399931</v>
+        <v>399920</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7698646323274957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7250097381923627</v>
+        <v>0.7262809841683741</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8067349750057509</v>
+        <v>0.8067130083534078</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>628</v>
@@ -1723,19 +1723,19 @@
         <v>712734</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>682547</v>
+        <v>684103</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>741861</v>
+        <v>743181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7320172149261081</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7010131549966848</v>
+        <v>0.7026112639059243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7619318788951985</v>
+        <v>0.7632874114737133</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>58232</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45278</v>
+        <v>44203</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74469</v>
+        <v>72489</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.174174624380989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1354294482394501</v>
+        <v>0.1322135683388226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2227403578392493</v>
+        <v>0.2168187409524639</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -1848,19 +1848,19 @@
         <v>30027</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19834</v>
+        <v>20819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41135</v>
+        <v>41477</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07948779315764165</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0525032064539378</v>
+        <v>0.05511237481119341</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1088906304326942</v>
+        <v>0.1097977243392328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -1869,19 +1869,19 @@
         <v>88259</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71047</v>
+        <v>72358</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109837</v>
+        <v>110091</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1239436333008929</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09977244008371768</v>
+        <v>0.1016137908973508</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1542455892223623</v>
+        <v>0.1546018971738073</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>276098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259861</v>
+        <v>261841</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289052</v>
+        <v>290127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.825825375619011</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7772596421607502</v>
+        <v>0.7831812590475362</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8645705517605499</v>
+        <v>0.8677864316611774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>327</v>
@@ -1919,19 +1919,19 @@
         <v>347735</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>336627</v>
+        <v>336285</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>357928</v>
+        <v>356943</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9205122068423583</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8911093695673058</v>
+        <v>0.890202275660767</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9474967935460622</v>
+        <v>0.9448876251888065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>597</v>
@@ -1940,19 +1940,19 @@
         <v>623833</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602255</v>
+        <v>602001</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>641045</v>
+        <v>639734</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8760563666991071</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8457544107776376</v>
+        <v>0.8453981028261927</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9002275599162822</v>
+        <v>0.8983862091026488</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>23863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16892</v>
+        <v>16813</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34710</v>
+        <v>33414</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09316745232165868</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06594963752986752</v>
+        <v>0.0656425224494689</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1355170315306122</v>
+        <v>0.130457476627504</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2065,19 +2065,19 @@
         <v>8014</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2785</v>
+        <v>2724</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16383</v>
+        <v>17157</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02009101515870271</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006981452614287753</v>
+        <v>0.006829916129236302</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04107199059110073</v>
+        <v>0.04301202270955962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2086,19 +2086,19 @@
         <v>31877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22699</v>
+        <v>22443</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43857</v>
+        <v>45009</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04866632667031374</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03465452570236315</v>
+        <v>0.03426394347708335</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06695502021370836</v>
+        <v>0.06871491059836694</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>232270</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>221423</v>
+        <v>222719</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>239241</v>
+        <v>239320</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9068325476783413</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8644829684693878</v>
+        <v>0.8695425233724953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9340503624701323</v>
+        <v>0.9343574775505308</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -2136,19 +2136,19 @@
         <v>390870</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>382501</v>
+        <v>381727</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>396099</v>
+        <v>396160</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9799089848412973</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9589280094088992</v>
+        <v>0.9569879772904403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9930185473857122</v>
+        <v>0.9931700838707637</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>566</v>
@@ -2157,19 +2157,19 @@
         <v>623140</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>611160</v>
+        <v>610008</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>632318</v>
+        <v>632574</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9513336733296862</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9330449797862916</v>
+        <v>0.9312850894016329</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9653454742976366</v>
+        <v>0.9657360565229165</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>1176137</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3466962845575992</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>893</v>
@@ -2282,19 +2282,19 @@
         <v>921979</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2605119304646502</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1987</v>
@@ -2303,19 +2303,19 @@
         <v>2098116</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3026921600306471</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>2216277</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2160617</v>
+        <v>2161460</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2273286</v>
+        <v>2276269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6533037154424008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6368964702685724</v>
+        <v>0.6371450841876773</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6701086098304765</v>
+        <v>0.6709879824120105</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2440</v>
@@ -2353,19 +2353,19 @@
         <v>2617124</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2563331</v>
+        <v>2558688</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2669657</v>
+        <v>2671409</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7394880695353498</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7242884581696817</v>
+        <v>0.7229764157196541</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7543314695213658</v>
+        <v>0.7548265129390126</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4575</v>
@@ -2374,19 +2374,19 @@
         <v>4833401</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4754381</v>
+        <v>4748790</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4915582</v>
+        <v>4907176</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6973078399693529</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6859076660705602</v>
+        <v>0.6851011364186201</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.709163987426169</v>
+        <v>0.7079511728146259</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>93153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66899</v>
+        <v>67639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120768</v>
+        <v>124151</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2284321189246319</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1640511028437588</v>
+        <v>0.1658665351510424</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2961491666069935</v>
+        <v>0.3044473485998735</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -2742,19 +2742,19 @@
         <v>68600</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50036</v>
+        <v>49854</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89401</v>
+        <v>90843</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1905313640929679</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1389716173238099</v>
+        <v>0.1384647596380434</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2483028388009882</v>
+        <v>0.252308235044273</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -2763,19 +2763,19 @@
         <v>161754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>130356</v>
+        <v>127381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198790</v>
+        <v>193822</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2106600864809451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1697697679792037</v>
+        <v>0.1658950083008145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.258894092438462</v>
+        <v>0.2524242861765066</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>314640</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287025</v>
+        <v>283642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>340894</v>
+        <v>340154</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7715678810753682</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7038508333930064</v>
+        <v>0.6955526514001266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8359488971562413</v>
+        <v>0.8341334648489576</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>168</v>
@@ -2813,19 +2813,19 @@
         <v>291448</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270647</v>
+        <v>269205</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310012</v>
+        <v>310194</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8094686359070322</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7516971611990122</v>
+        <v>0.747691764955727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8610283826761903</v>
+        <v>0.8615352403619565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>303</v>
@@ -2834,19 +2834,19 @@
         <v>606088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569052</v>
+        <v>574020</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>637486</v>
+        <v>640461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.789339913519055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7411059075615377</v>
+        <v>0.7475757138234934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8302302320207963</v>
+        <v>0.8341049916991855</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>161617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>138168</v>
+        <v>137670</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>191301</v>
+        <v>190763</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.338896956956284</v>
+        <v>0.3388969569562839</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2897273467052681</v>
+        <v>0.2886833085106894</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4011432062353909</v>
+        <v>0.4000145038106801</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -2959,7 +2959,7 @@
         <v>122038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102879</v>
+        <v>102337</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>143476</v>
@@ -2968,10 +2968,10 @@
         <v>0.2435481225264339</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2053131794484696</v>
+        <v>0.2042312333209721</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2863313565025418</v>
+        <v>0.2863309110506156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>218</v>
@@ -2980,19 +2980,19 @@
         <v>283654</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>252396</v>
+        <v>250338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>320219</v>
+        <v>319602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2900431836553113</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2580807060970002</v>
+        <v>0.25597663406664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3274311738219759</v>
+        <v>0.3268007811669552</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>315273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>285589</v>
+        <v>286127</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>338722</v>
+        <v>339220</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.661103043043716</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5988567937646092</v>
+        <v>0.5999854961893197</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7102726532947319</v>
+        <v>0.7113166914893106</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -3033,16 +3033,16 @@
         <v>357607</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>398204</v>
+        <v>398746</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.756451877473566</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7136686434974585</v>
+        <v>0.7136690889493847</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7946868205515307</v>
+        <v>0.7957687666790281</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>544</v>
@@ -3051,19 +3051,19 @@
         <v>694319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>657754</v>
+        <v>658371</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725577</v>
+        <v>727635</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7099568163446887</v>
+        <v>0.7099568163446888</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6725688261780236</v>
+        <v>0.673199218833045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7419192939029997</v>
+        <v>0.74402336593336</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>168348</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145316</v>
+        <v>147785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191580</v>
+        <v>195761</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2716792087947245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2345097549892713</v>
+        <v>0.2384943185293753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3091693329763906</v>
+        <v>0.3159172737185306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>198</v>
@@ -3176,19 +3176,19 @@
         <v>146458</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128900</v>
+        <v>127894</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>165231</v>
+        <v>164524</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2354099921867466</v>
+        <v>0.2354099921867465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2071877444429401</v>
+        <v>0.2055716726772067</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2655855012285732</v>
+        <v>0.2644490890069242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -3197,19 +3197,19 @@
         <v>314806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>287950</v>
+        <v>286104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>346916</v>
+        <v>344511</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2535083788236698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2318811366263899</v>
+        <v>0.2303947134233771</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2793661468306937</v>
+        <v>0.277428854702842</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>451311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>428079</v>
+        <v>423898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474343</v>
+        <v>471874</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7283207912052757</v>
+        <v>0.7283207912052756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6908306670236094</v>
+        <v>0.6840827262814696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7654902450107286</v>
+        <v>0.7615056814706247</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>648</v>
@@ -3247,19 +3247,19 @@
         <v>475681</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>456908</v>
+        <v>457615</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>493239</v>
+        <v>494245</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7645900078132535</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7344144987714268</v>
+        <v>0.7355509109930757</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7928122555570598</v>
+        <v>0.7944283273227932</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1043</v>
@@ -3268,19 +3268,19 @@
         <v>926992</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>894882</v>
+        <v>897287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>953848</v>
+        <v>955694</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7464916211763302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7206338531693063</v>
+        <v>0.7225711452971579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.76811886337361</v>
+        <v>0.7696052865766227</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>195321</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>170221</v>
+        <v>170239</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219326</v>
+        <v>221025</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2792388810864468</v>
+        <v>0.2792388810864467</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.243354880530208</v>
+        <v>0.2433806558791516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3135577865416075</v>
+        <v>0.3159866409829198</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>275</v>
@@ -3393,19 +3393,19 @@
         <v>174441</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158101</v>
+        <v>156733</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>194635</v>
+        <v>194772</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2371804883644381</v>
+        <v>0.2371804883644382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2149637579100352</v>
+        <v>0.2131030374447671</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2646379844654483</v>
+        <v>0.2648238460781923</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>459</v>
@@ -3414,19 +3414,19 @@
         <v>369762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>336682</v>
+        <v>340156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>397983</v>
+        <v>400255</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2576820657195051</v>
+        <v>0.2576820657195052</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2346290502461087</v>
+        <v>0.2370498975417364</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2773491672495914</v>
+        <v>0.2789324512527424</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>504155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>480150</v>
+        <v>478451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>529255</v>
+        <v>529237</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7207611189135533</v>
+        <v>0.7207611189135532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6864422134583925</v>
+        <v>0.68401335901708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7566451194697918</v>
+        <v>0.7566193441208484</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>864</v>
@@ -3464,19 +3464,19 @@
         <v>561037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>540843</v>
+        <v>540706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>577377</v>
+        <v>578745</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7628195116355617</v>
+        <v>0.7628195116355618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7353620155345515</v>
+        <v>0.7351761539218077</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7850362420899648</v>
+        <v>0.7868969625552328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1344</v>
@@ -3485,19 +3485,19 @@
         <v>1065192</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1036971</v>
+        <v>1034699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1098272</v>
+        <v>1094798</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7423179342804946</v>
+        <v>0.7423179342804948</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7226508327504085</v>
+        <v>0.7210675487472575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7653709497538913</v>
+        <v>0.7629501024582638</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>188232</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>166695</v>
+        <v>165339</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>211425</v>
+        <v>210588</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3094566729138554</v>
+        <v>0.3094566729138553</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2740496942816641</v>
+        <v>0.2718199035329502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3475876555224359</v>
+        <v>0.3462104165229354</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>219</v>
@@ -3610,19 +3610,19 @@
         <v>134336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>118150</v>
+        <v>118713</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>150695</v>
+        <v>150842</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2206366767770417</v>
+        <v>0.2206366767770418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1940523848148698</v>
+        <v>0.1949774479669679</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2475055550872296</v>
+        <v>0.2477471097871684</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>421</v>
@@ -3631,19 +3631,19 @@
         <v>322567</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>292012</v>
+        <v>296623</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>348939</v>
+        <v>351890</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2650251189806219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2399207022290941</v>
+        <v>0.2437090130271052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2866920851009369</v>
+        <v>0.2891166407241158</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>420033</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>396840</v>
+        <v>397677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>441570</v>
+        <v>442926</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6905433270861447</v>
+        <v>0.6905433270861445</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6524123444775642</v>
+        <v>0.6537895834770645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.725950305718336</v>
+        <v>0.7281800964670501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>783</v>
@@ -3681,19 +3681,19 @@
         <v>474519</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>458160</v>
+        <v>458013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>490705</v>
+        <v>490142</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7793633232229581</v>
+        <v>0.7793633232229583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7524944449127704</v>
+        <v>0.7522528902128319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8059476151851301</v>
+        <v>0.8050225520330325</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1243</v>
@@ -3702,19 +3702,19 @@
         <v>894553</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>868181</v>
+        <v>865230</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>925108</v>
+        <v>920497</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.734974881019378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7133079148990632</v>
+        <v>0.7108833592758843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.760079297770906</v>
+        <v>0.7562909869728949</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>74883</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62108</v>
+        <v>63428</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87924</v>
+        <v>89530</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1839516027387819</v>
+        <v>0.183951602738782</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1525702626678465</v>
+        <v>0.1558120087176384</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.215987704134493</v>
+        <v>0.2199313946491199</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>97</v>
@@ -3827,19 +3827,19 @@
         <v>54563</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45029</v>
+        <v>45862</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65595</v>
+        <v>64911</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1242421760803327</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1025339481142525</v>
+        <v>0.1044291007868913</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1493621973087177</v>
+        <v>0.1478044267509677</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>200</v>
@@ -3848,19 +3848,19 @@
         <v>129446</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>111993</v>
+        <v>112575</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146257</v>
+        <v>146724</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1529649111088785</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1323404324390721</v>
+        <v>0.133028914193866</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.172830792381512</v>
+        <v>0.1733818786680252</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>332197</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>319156</v>
+        <v>317550</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>344972</v>
+        <v>343652</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.816048397261218</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7840122958655069</v>
+        <v>0.7800686053508803</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8474297373321532</v>
+        <v>0.8441879912823615</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>730</v>
@@ -3898,19 +3898,19 @@
         <v>384603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>373571</v>
+        <v>374255</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>394137</v>
+        <v>393304</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8757578239196675</v>
+        <v>0.8757578239196673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8506378026912825</v>
+        <v>0.8521955732490324</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8974660518857474</v>
+        <v>0.8955708992131088</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1197</v>
@@ -3919,19 +3919,19 @@
         <v>716800</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>699989</v>
+        <v>699522</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>734253</v>
+        <v>733671</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8470350888911214</v>
+        <v>0.8470350888911216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8271692076184881</v>
+        <v>0.826618121331975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8676595675609277</v>
+        <v>0.8669710858061338</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>20195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13835</v>
+        <v>13658</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29087</v>
+        <v>28453</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06510254728303488</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0446016504959353</v>
+        <v>0.04402963576807824</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09377036686177577</v>
+        <v>0.09172666776636187</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4044,19 +4044,19 @@
         <v>6778</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3582</v>
+        <v>3619</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11192</v>
+        <v>11527</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01458793170363928</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007709211495819154</v>
+        <v>0.007789770371150108</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02408922360006007</v>
+        <v>0.02480910100344886</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -4065,19 +4065,19 @@
         <v>26972</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19198</v>
+        <v>19278</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35920</v>
+        <v>35683</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03481173488872831</v>
+        <v>0.0348117348887283</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02477743747641364</v>
+        <v>0.02488038986913312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04636000750505442</v>
+        <v>0.04605380271803999</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>290003</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>281111</v>
+        <v>281745</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>296363</v>
+        <v>296540</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9348974527169649</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9062296331382251</v>
+        <v>0.9082733322336374</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9553983495040647</v>
+        <v>0.9559703642319217</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>869</v>
@@ -4115,19 +4115,19 @@
         <v>457831</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>453417</v>
+        <v>453082</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>461027</v>
+        <v>460990</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9854120682963607</v>
+        <v>0.9854120682963606</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9759107763999399</v>
+        <v>0.9751908989965513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.992290788504181</v>
+        <v>0.99221022962885</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1297</v>
@@ -4136,19 +4136,19 @@
         <v>747835</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>738887</v>
+        <v>739124</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>755609</v>
+        <v>755529</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9651882651112716</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9536399924949456</v>
+        <v>0.9539461972819601</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9752225625235862</v>
+        <v>0.9751196101308672</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>901748</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2554990116196763</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>952</v>
@@ -4261,19 +4261,19 @@
         <v>707214</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.18953143835764</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1763</v>
@@ -4282,19 +4282,19 @@
         <v>1608962</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2215975019216167</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>2627613</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2569860</v>
+        <v>2569561</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2688441</v>
+        <v>2684424</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7445009883803236</v>
+        <v>0.7445009883803237</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7281376035530159</v>
+        <v>0.7280528151833261</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7617358567480844</v>
+        <v>0.7605977077114809</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4409</v>
@@ -4332,19 +4332,19 @@
         <v>3024166</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2983536</v>
+        <v>2975042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3068158</v>
+        <v>3065256</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.81046856164236</v>
+        <v>0.8104685616423599</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7995797050452246</v>
+        <v>0.7973035219863079</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.822258278871803</v>
+        <v>0.821480514276473</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6971</v>
@@ -4353,19 +4353,19 @@
         <v>5651778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5577288</v>
+        <v>5576182</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5722915</v>
+        <v>5722515</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7784024980783832</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7681431651913628</v>
+        <v>0.7679908224367922</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7881999131885518</v>
+        <v>0.7881448879483108</v>
       </c>
     </row>
     <row r="27">
